--- a/docs/M306-PlanningM306_2019.xlsx
+++ b/docs/M306-PlanningM306_2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cours2017_2018\M306\M306_Support_cours\2_planifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IVAN.CLLVR\Desktop\Projet_M306\CFPT_M306\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="7220" windowWidth="28250" windowHeight="13010" tabRatio="781"/>
+    <workbookView xWindow="9135" yWindow="7215" windowWidth="28245" windowHeight="13005" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="Modèle" sheetId="26" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Listes des tâches</t>
   </si>
@@ -80,6 +80,63 @@
       </rPr>
       <t>Personnes qui effectuent la tâche</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupe </t>
+  </si>
+  <si>
+    <t>Définir le projet</t>
+  </si>
+  <si>
+    <t>Utilisation de l'outil</t>
+  </si>
+  <si>
+    <t>Utilisation de GitHub</t>
+  </si>
+  <si>
+    <t>Définir Scope</t>
+  </si>
+  <si>
+    <t>Définir le délais</t>
+  </si>
+  <si>
+    <t>Groupe / Construct3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des tâches </t>
+  </si>
+  <si>
+    <t>Répartition des tâches</t>
+  </si>
+  <si>
+    <t>Retranscription des actions</t>
+  </si>
+  <si>
+    <t>Erblin</t>
+  </si>
+  <si>
+    <t>Apprentissage de l'outil</t>
+  </si>
+  <si>
+    <t>Outils</t>
+  </si>
+  <si>
+    <t>Ressources</t>
+  </si>
+  <si>
+    <t>Document Scope</t>
+  </si>
+  <si>
+    <t>Tests du jeu</t>
+  </si>
+  <si>
+    <t>Tests du jeu hors navigateur</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Groupe</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1215,6 +1272,33 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1269,21 +1353,6 @@
     <xf numFmtId="166" fontId="13" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -1293,36 +1362,34 @@
     <xf numFmtId="164" fontId="12" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="55" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="55" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1822,227 +1889,228 @@
   </sheetPr>
   <dimension ref="A1:BM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="29.1796875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7265625" style="9" customWidth="1"/>
-    <col min="6" max="65" width="2.1796875" style="3" customWidth="1"/>
-    <col min="66" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="9" customWidth="1"/>
+    <col min="6" max="65" width="2.140625" style="3" customWidth="1"/>
+    <col min="66" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:65" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="78">
+      <c r="F1" s="87">
         <f>WEEKNUM(F2)</f>
-        <v>4</v>
-      </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81">
+        <v>6</v>
+      </c>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="67">
         <f>WEEKNUM(L2)</f>
-        <v>5</v>
-      </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="81">
+        <v>7</v>
+      </c>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="67">
         <f>WEEKNUM(R2)</f>
-        <v>6</v>
-      </c>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="81">
+        <v>8</v>
+      </c>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="67">
         <f>WEEKNUM(X2)</f>
-        <v>7</v>
-      </c>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="81">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="67">
         <f>WEEKNUM(AD2)</f>
-        <v>8</v>
-      </c>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="81">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="67">
         <f>WEEKNUM(AJ2)</f>
-        <v>9</v>
-      </c>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="81">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="67">
         <f>WEEKNUM(AP2)</f>
+        <v>12</v>
+      </c>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="67">
+        <f>WEEKNUM(AV2)</f>
+        <v>13</v>
+      </c>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="67">
+        <f>WEEKNUM(BB2)</f>
+        <v>14</v>
+      </c>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="67">
+        <f>WEEKNUM(BH2)</f>
+        <v>15</v>
+      </c>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="69"/>
+    </row>
+    <row r="2" spans="1:65" ht="106.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="90">
+        <v>44593</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="63">
+        <f>F2+7</f>
+        <v>44600</v>
+      </c>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="63">
+        <f>L2+7</f>
+        <v>44607</v>
+      </c>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="63">
+        <f>R2+7</f>
+        <v>44614</v>
+      </c>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="63">
+        <f>X2+7</f>
+        <v>44621</v>
+      </c>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="63">
+        <f>AD2+7</f>
+        <v>44628</v>
+      </c>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="63">
+        <f>AJ2+7</f>
+        <v>44635</v>
+      </c>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="63">
+        <f>AP2+7</f>
+        <v>44642</v>
+      </c>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="63">
+        <f>AV2+7</f>
+        <v>44649</v>
+      </c>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="63">
+        <f>BB2+7</f>
+        <v>44656</v>
+      </c>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="64"/>
+      <c r="BK2" s="65"/>
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="66"/>
+    </row>
+    <row r="3" spans="1:65" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="81">
-        <f>WEEKNUM(AV2)</f>
-        <v>11</v>
-      </c>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="81">
-        <f>WEEKNUM(BB2)</f>
-        <v>12</v>
-      </c>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="81">
-        <f>WEEKNUM(BH2)</f>
-        <v>13</v>
-      </c>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="80"/>
-    </row>
-    <row r="2" spans="1:65" ht="106.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="86">
-        <v>43488</v>
-      </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="82">
-        <f>F2+7</f>
-        <v>43495</v>
-      </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="82">
-        <f>L2+7</f>
-        <v>43502</v>
-      </c>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="82">
-        <f>R2+7</f>
-        <v>43509</v>
-      </c>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="82">
-        <f>X2+7</f>
-        <v>43516</v>
-      </c>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="82">
-        <f>AD2+7</f>
-        <v>43523</v>
-      </c>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="82">
-        <f>AJ2+7</f>
-        <v>43530</v>
-      </c>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="82">
-        <f>AP2+7</f>
-        <v>43537</v>
-      </c>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="82">
-        <f>AV2+7</f>
-        <v>43544</v>
-      </c>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="82">
-        <f>BB2+7</f>
-        <v>43551</v>
-      </c>
-      <c r="BI2" s="83"/>
-      <c r="BJ2" s="83"/>
-      <c r="BK2" s="87"/>
-      <c r="BL2" s="87"/>
-      <c r="BM2" s="88"/>
-    </row>
-    <row r="3" spans="1:65" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="37" t="s">
         <v>7</v>
       </c>
@@ -2074,22 +2142,22 @@
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="12"/>
-      <c r="AD3" s="61" t="s">
+      <c r="AD3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="61" t="s">
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="63"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="72"/>
       <c r="AP3" s="10"/>
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
@@ -2115,12 +2183,12 @@
       <c r="BL3" s="11"/>
       <c r="BM3" s="12"/>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="89"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="40">
         <f>SUM(D5:D14)</f>
         <v>0</v>
@@ -2153,18 +2221,18 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="66"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="75"/>
       <c r="AP4" s="6"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
@@ -2190,17 +2258,21 @@
       <c r="BL4" s="4"/>
       <c r="BM4" s="5"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="41" t="str">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="41">
         <f>IF($B5&gt;"",SUM(COUNTIF(F5:BM5,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
         <f>IF($B5&gt;"",SUM(COUNTIF($F5:$BM5,"R"))/2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F5" s="48"/>
       <c r="G5" s="49"/>
@@ -2226,18 +2298,18 @@
       <c r="AA5" s="49"/>
       <c r="AB5" s="49"/>
       <c r="AC5" s="50"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="66"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="75"/>
       <c r="AP5" s="48"/>
       <c r="AQ5" s="49"/>
       <c r="AR5" s="49"/>
@@ -2263,17 +2335,21 @@
       <c r="BL5" s="49"/>
       <c r="BM5" s="50"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="41" t="str">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="41">
         <f t="shared" ref="D6:D14" si="0">IF($B6&gt;"",SUM(COUNTIF(F6:BM6,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E6" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
         <f t="shared" ref="E6:E14" si="1">IF($B6&gt;"",SUM(COUNTIF($F6:$BM6,"R"))/2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="52"/>
@@ -2299,18 +2375,18 @@
       <c r="AA6" s="52"/>
       <c r="AB6" s="52"/>
       <c r="AC6" s="53"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="66"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="75"/>
       <c r="AP6" s="51"/>
       <c r="AQ6" s="52"/>
       <c r="AR6" s="52"/>
@@ -2336,17 +2412,21 @@
       <c r="BL6" s="52"/>
       <c r="BM6" s="53"/>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="41" t="str">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="52"/>
@@ -2372,18 +2452,18 @@
       <c r="AA7" s="52"/>
       <c r="AB7" s="52"/>
       <c r="AC7" s="53"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="66"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="75"/>
       <c r="AP7" s="51"/>
       <c r="AQ7" s="52"/>
       <c r="AR7" s="52"/>
@@ -2409,17 +2489,21 @@
       <c r="BL7" s="52"/>
       <c r="BM7" s="53"/>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="41" t="str">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="52"/>
@@ -2445,18 +2529,18 @@
       <c r="AA8" s="52"/>
       <c r="AB8" s="52"/>
       <c r="AC8" s="53"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="66"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="75"/>
       <c r="AP8" s="51"/>
       <c r="AQ8" s="52"/>
       <c r="AR8" s="52"/>
@@ -2482,17 +2566,21 @@
       <c r="BL8" s="52"/>
       <c r="BM8" s="53"/>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="41" t="str">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E9" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52"/>
@@ -2518,18 +2606,18 @@
       <c r="AA9" s="52"/>
       <c r="AB9" s="52"/>
       <c r="AC9" s="53"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="66"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="75"/>
       <c r="AP9" s="51"/>
       <c r="AQ9" s="52"/>
       <c r="AR9" s="52"/>
@@ -2555,17 +2643,19 @@
       <c r="BL9" s="52"/>
       <c r="BM9" s="53"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="41" t="str">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="41">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E10" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
@@ -2591,18 +2681,18 @@
       <c r="AA10" s="52"/>
       <c r="AB10" s="52"/>
       <c r="AC10" s="53"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="66"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="75"/>
       <c r="AP10" s="51"/>
       <c r="AQ10" s="52"/>
       <c r="AR10" s="52"/>
@@ -2628,10 +2718,10 @@
       <c r="BL10" s="52"/>
       <c r="BM10" s="53"/>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="90"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2664,18 +2754,18 @@
       <c r="AA11" s="52"/>
       <c r="AB11" s="52"/>
       <c r="AC11" s="53"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="65"/>
-      <c r="AO11" s="66"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="75"/>
       <c r="AP11" s="51"/>
       <c r="AQ11" s="52"/>
       <c r="AR11" s="52"/>
@@ -2701,10 +2791,10 @@
       <c r="BL11" s="52"/>
       <c r="BM11" s="53"/>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="90"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2737,18 +2827,18 @@
       <c r="AA12" s="52"/>
       <c r="AB12" s="52"/>
       <c r="AC12" s="53"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="65"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="65"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="65"/>
-      <c r="AN12" s="65"/>
-      <c r="AO12" s="66"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="75"/>
       <c r="AP12" s="51"/>
       <c r="AQ12" s="52"/>
       <c r="AR12" s="52"/>
@@ -2774,10 +2864,10 @@
       <c r="BL12" s="52"/>
       <c r="BM12" s="53"/>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="90"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2810,18 +2900,18 @@
       <c r="AA13" s="52"/>
       <c r="AB13" s="52"/>
       <c r="AC13" s="53"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="66"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="75"/>
       <c r="AP13" s="51"/>
       <c r="AQ13" s="52"/>
       <c r="AR13" s="52"/>
@@ -2847,10 +2937,10 @@
       <c r="BL13" s="52"/>
       <c r="BM13" s="53"/>
     </row>
-    <row r="14" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="91"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2883,18 +2973,18 @@
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
       <c r="AC14" s="56"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="65"/>
-      <c r="AL14" s="65"/>
-      <c r="AM14" s="65"/>
-      <c r="AN14" s="65"/>
-      <c r="AO14" s="66"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="75"/>
       <c r="AP14" s="54"/>
       <c r="AQ14" s="55"/>
       <c r="AR14" s="55"/>
@@ -2920,12 +3010,12 @@
       <c r="BL14" s="55"/>
       <c r="BM14" s="56"/>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="92"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="43">
         <f>SUM(D16:D25)</f>
         <v>0</v>
@@ -2958,18 +3048,18 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="66"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="73"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="75"/>
       <c r="AP15" s="6"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
@@ -2995,17 +3085,21 @@
       <c r="BL15" s="4"/>
       <c r="BM15" s="5"/>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="41" t="str">
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="41">
         <f>IF($B16&gt;"",SUM(COUNTIF(F16:BM16,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E16" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
         <f>IF($B16&gt;"",SUM(COUNTIF($F16:$BM16,"R"))/2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="49"/>
@@ -3031,18 +3125,18 @@
       <c r="AA16" s="49"/>
       <c r="AB16" s="49"/>
       <c r="AC16" s="50"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="66"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="75"/>
       <c r="AP16" s="48"/>
       <c r="AQ16" s="49"/>
       <c r="AR16" s="49"/>
@@ -3068,17 +3162,21 @@
       <c r="BL16" s="49"/>
       <c r="BM16" s="50"/>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="41" t="str">
-        <f t="shared" ref="D17:D25" si="2">IF($B17&gt;"",SUM(COUNTIF(F17:BM17,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f t="shared" ref="E17:E25" si="3">IF($B17&gt;"",SUM(COUNTIF($F17:$BM17,"R"))/2,"")</f>
-        <v/>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="41">
+        <f>IF($B17&gt;"",SUM(COUNTIF(F17:BM17,"P"))/2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <f>IF($B17&gt;"",SUM(COUNTIF($F17:$BM17,"R"))/2,"")</f>
+        <v>0</v>
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="52"/>
@@ -3104,18 +3202,18 @@
       <c r="AA17" s="52"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="53"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="66"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="75"/>
       <c r="AP17" s="51"/>
       <c r="AQ17" s="52"/>
       <c r="AR17" s="52"/>
@@ -3141,17 +3239,21 @@
       <c r="BL17" s="52"/>
       <c r="BM17" s="53"/>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E18" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="41">
+        <f>IF($B18&gt;"",SUM(COUNTIF(F18:BM18,"P"))/2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <f>IF($B18&gt;"",SUM(COUNTIF($F18:$BM18,"R"))/2,"")</f>
+        <v>0</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="52"/>
@@ -3177,18 +3279,18 @@
       <c r="AA18" s="52"/>
       <c r="AB18" s="52"/>
       <c r="AC18" s="53"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="66"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="74"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="75"/>
       <c r="AP18" s="51"/>
       <c r="AQ18" s="52"/>
       <c r="AR18" s="52"/>
@@ -3214,16 +3316,16 @@
       <c r="BL18" s="52"/>
       <c r="BM18" s="53"/>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="90"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D19:D25" si="2">IF($B19&gt;"",SUM(COUNTIF(F19:BM19,"P"))/2,"")</f>
         <v/>
       </c>
       <c r="E19" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E19:E25" si="3">IF($B19&gt;"",SUM(COUNTIF($F19:$BM19,"R"))/2,"")</f>
         <v/>
       </c>
       <c r="F19" s="51"/>
@@ -3250,18 +3352,18 @@
       <c r="AA19" s="52"/>
       <c r="AB19" s="52"/>
       <c r="AC19" s="53"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="66"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="74"/>
+      <c r="AL19" s="74"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="75"/>
       <c r="AP19" s="51"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="52"/>
@@ -3287,10 +3389,10 @@
       <c r="BL19" s="52"/>
       <c r="BM19" s="53"/>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="90"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3323,18 +3425,18 @@
       <c r="AA20" s="52"/>
       <c r="AB20" s="52"/>
       <c r="AC20" s="53"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="66"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="75"/>
       <c r="AP20" s="51"/>
       <c r="AQ20" s="52"/>
       <c r="AR20" s="52"/>
@@ -3360,10 +3462,10 @@
       <c r="BL20" s="52"/>
       <c r="BM20" s="53"/>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="90"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3396,18 +3498,18 @@
       <c r="AA21" s="52"/>
       <c r="AB21" s="52"/>
       <c r="AC21" s="53"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="65"/>
-      <c r="AL21" s="65"/>
-      <c r="AM21" s="65"/>
-      <c r="AN21" s="65"/>
-      <c r="AO21" s="66"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="73"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="75"/>
       <c r="AP21" s="51"/>
       <c r="AQ21" s="52"/>
       <c r="AR21" s="52"/>
@@ -3433,10 +3535,10 @@
       <c r="BL21" s="52"/>
       <c r="BM21" s="53"/>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="90"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3469,18 +3571,18 @@
       <c r="AA22" s="52"/>
       <c r="AB22" s="52"/>
       <c r="AC22" s="53"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="64"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="65"/>
-      <c r="AM22" s="65"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="66"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="75"/>
       <c r="AP22" s="51"/>
       <c r="AQ22" s="52"/>
       <c r="AR22" s="52"/>
@@ -3506,10 +3608,10 @@
       <c r="BL22" s="52"/>
       <c r="BM22" s="53"/>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="90"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3542,18 +3644,18 @@
       <c r="AA23" s="52"/>
       <c r="AB23" s="52"/>
       <c r="AC23" s="53"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="66"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="73"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="75"/>
       <c r="AP23" s="51"/>
       <c r="AQ23" s="52"/>
       <c r="AR23" s="52"/>
@@ -3579,10 +3681,10 @@
       <c r="BL23" s="52"/>
       <c r="BM23" s="53"/>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="90"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="41" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3615,18 +3717,18 @@
       <c r="AA24" s="52"/>
       <c r="AB24" s="52"/>
       <c r="AC24" s="53"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="64"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="66"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="75"/>
       <c r="AP24" s="51"/>
       <c r="AQ24" s="52"/>
       <c r="AR24" s="52"/>
@@ -3652,10 +3754,10 @@
       <c r="BL24" s="52"/>
       <c r="BM24" s="53"/>
     </row>
-    <row r="25" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="91"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="42" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3688,18 +3790,18 @@
       <c r="AA25" s="55"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="56"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="65"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="64"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="66"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="75"/>
       <c r="AP25" s="54"/>
       <c r="AQ25" s="55"/>
       <c r="AR25" s="55"/>
@@ -3725,12 +3827,12 @@
       <c r="BL25" s="55"/>
       <c r="BM25" s="56"/>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="93"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="44">
         <f>SUM(D27:D36)</f>
         <v>0</v>
@@ -3763,18 +3865,18 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="65"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="66"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="75"/>
       <c r="AP26" s="6"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
@@ -3800,17 +3902,19 @@
       <c r="BL26" s="4"/>
       <c r="BM26" s="5"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="41" t="str">
+      <c r="B27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="41">
         <f>IF($B27&gt;"",SUM(COUNTIF(F27:BM27,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E27" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
         <f>IF($B27&gt;"",SUM(COUNTIF($F27:$BM27,"R"))/2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="49"/>
@@ -3836,18 +3940,18 @@
       <c r="AA27" s="49"/>
       <c r="AB27" s="49"/>
       <c r="AC27" s="50"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
-      <c r="AM27" s="65"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="66"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="74"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="75"/>
       <c r="AP27" s="48"/>
       <c r="AQ27" s="49"/>
       <c r="AR27" s="49"/>
@@ -3873,17 +3977,19 @@
       <c r="BL27" s="49"/>
       <c r="BM27" s="50"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="41" t="str">
+      <c r="B28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="93"/>
+      <c r="D28" s="41">
         <f t="shared" ref="D28:D36" si="4">IF($B28&gt;"",SUM(COUNTIF(F28:BM28,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E28" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
         <f t="shared" ref="E28:E69" si="5">IF($B28&gt;"",SUM(COUNTIF($F28:$BM28,"R"))/2,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F28" s="51"/>
       <c r="G28" s="52"/>
@@ -3909,18 +4015,18 @@
       <c r="AA28" s="52"/>
       <c r="AB28" s="52"/>
       <c r="AC28" s="53"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="66"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="66"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="75"/>
       <c r="AP28" s="51"/>
       <c r="AQ28" s="52"/>
       <c r="AR28" s="52"/>
@@ -3946,10 +4052,10 @@
       <c r="BL28" s="52"/>
       <c r="BM28" s="53"/>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="90"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3982,18 +4088,18 @@
       <c r="AA29" s="52"/>
       <c r="AB29" s="52"/>
       <c r="AC29" s="53"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="65"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="65"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="65"/>
-      <c r="AM29" s="65"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="66"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="75"/>
       <c r="AP29" s="51"/>
       <c r="AQ29" s="52"/>
       <c r="AR29" s="52"/>
@@ -4019,10 +4125,10 @@
       <c r="BL29" s="52"/>
       <c r="BM29" s="53"/>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="90"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4055,18 +4161,18 @@
       <c r="AA30" s="52"/>
       <c r="AB30" s="52"/>
       <c r="AC30" s="53"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="65"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="65"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="66"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="75"/>
       <c r="AP30" s="51"/>
       <c r="AQ30" s="52"/>
       <c r="AR30" s="52"/>
@@ -4092,10 +4198,10 @@
       <c r="BL30" s="52"/>
       <c r="BM30" s="53"/>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="90"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4128,18 +4234,18 @@
       <c r="AA31" s="52"/>
       <c r="AB31" s="52"/>
       <c r="AC31" s="53"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="66"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="75"/>
       <c r="AP31" s="51"/>
       <c r="AQ31" s="52"/>
       <c r="AR31" s="52"/>
@@ -4165,10 +4271,10 @@
       <c r="BL31" s="52"/>
       <c r="BM31" s="53"/>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="90"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4201,18 +4307,18 @@
       <c r="AA32" s="52"/>
       <c r="AB32" s="52"/>
       <c r="AC32" s="53"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="65"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="65"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="65"/>
-      <c r="AM32" s="65"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="66"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="74"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="74"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="75"/>
       <c r="AP32" s="51"/>
       <c r="AQ32" s="52"/>
       <c r="AR32" s="52"/>
@@ -4238,10 +4344,10 @@
       <c r="BL32" s="52"/>
       <c r="BM32" s="53"/>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="90"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4274,18 +4380,18 @@
       <c r="AA33" s="52"/>
       <c r="AB33" s="52"/>
       <c r="AC33" s="53"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="65"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="65"/>
-      <c r="AM33" s="65"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="66"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="75"/>
       <c r="AP33" s="51"/>
       <c r="AQ33" s="52"/>
       <c r="AR33" s="52"/>
@@ -4311,10 +4417,10 @@
       <c r="BL33" s="52"/>
       <c r="BM33" s="53"/>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="90"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4347,18 +4453,18 @@
       <c r="AA34" s="52"/>
       <c r="AB34" s="52"/>
       <c r="AC34" s="53"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="65"/>
-      <c r="AM34" s="65"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="66"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="75"/>
       <c r="AP34" s="51"/>
       <c r="AQ34" s="52"/>
       <c r="AR34" s="52"/>
@@ -4384,10 +4490,10 @@
       <c r="BL34" s="52"/>
       <c r="BM34" s="53"/>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="90"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="41" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4420,18 +4526,18 @@
       <c r="AA35" s="52"/>
       <c r="AB35" s="52"/>
       <c r="AC35" s="53"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="64"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="65"/>
-      <c r="AM35" s="65"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="66"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="73"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="75"/>
       <c r="AP35" s="51"/>
       <c r="AQ35" s="52"/>
       <c r="AR35" s="52"/>
@@ -4457,10 +4563,10 @@
       <c r="BL35" s="52"/>
       <c r="BM35" s="53"/>
     </row>
-    <row r="36" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="38"/>
-      <c r="C36" s="91"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="42" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4493,18 +4599,18 @@
       <c r="AA36" s="55"/>
       <c r="AB36" s="55"/>
       <c r="AC36" s="56"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="65"/>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="66"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="74"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="75"/>
       <c r="AP36" s="54"/>
       <c r="AQ36" s="55"/>
       <c r="AR36" s="55"/>
@@ -4530,12 +4636,12 @@
       <c r="BL36" s="55"/>
       <c r="BM36" s="56"/>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="30"/>
-      <c r="C37" s="94"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="45">
         <f>SUM(D38:D47)</f>
         <v>0</v>
@@ -4568,18 +4674,18 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="65"/>
-      <c r="AM37" s="65"/>
-      <c r="AN37" s="65"/>
-      <c r="AO37" s="66"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="75"/>
       <c r="AP37" s="6"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
@@ -4605,17 +4711,21 @@
       <c r="BL37" s="4"/>
       <c r="BM37" s="5"/>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="41" t="str">
+      <c r="B38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="41">
         <f>IF($B38&gt;"",SUM(COUNTIF(F38:BM38,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E38" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="49"/>
@@ -4641,18 +4751,18 @@
       <c r="AA38" s="49"/>
       <c r="AB38" s="49"/>
       <c r="AC38" s="50"/>
-      <c r="AD38" s="64"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="65"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="64"/>
-      <c r="AK38" s="65"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="65"/>
-      <c r="AO38" s="66"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="74"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="74"/>
+      <c r="AI38" s="75"/>
+      <c r="AJ38" s="73"/>
+      <c r="AK38" s="74"/>
+      <c r="AL38" s="74"/>
+      <c r="AM38" s="74"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="75"/>
       <c r="AP38" s="48"/>
       <c r="AQ38" s="49"/>
       <c r="AR38" s="49"/>
@@ -4678,10 +4788,10 @@
       <c r="BL38" s="49"/>
       <c r="BM38" s="50"/>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="90"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="41" t="str">
         <f t="shared" ref="D39:D47" si="6">IF($B39&gt;"",SUM(COUNTIF(F39:BM39,"P"))/2,"")</f>
         <v/>
@@ -4714,18 +4824,18 @@
       <c r="AA39" s="52"/>
       <c r="AB39" s="52"/>
       <c r="AC39" s="53"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65"/>
-      <c r="AG39" s="65"/>
-      <c r="AH39" s="65"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="65"/>
-      <c r="AL39" s="65"/>
-      <c r="AM39" s="65"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="66"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="74"/>
+      <c r="AF39" s="74"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="74"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="75"/>
       <c r="AP39" s="51"/>
       <c r="AQ39" s="52"/>
       <c r="AR39" s="52"/>
@@ -4751,10 +4861,10 @@
       <c r="BL39" s="52"/>
       <c r="BM39" s="53"/>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="90"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4787,18 +4897,18 @@
       <c r="AA40" s="52"/>
       <c r="AB40" s="52"/>
       <c r="AC40" s="53"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="65"/>
-      <c r="AH40" s="65"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="65"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="65"/>
-      <c r="AO40" s="66"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="74"/>
+      <c r="AF40" s="74"/>
+      <c r="AG40" s="74"/>
+      <c r="AH40" s="74"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="74"/>
+      <c r="AL40" s="74"/>
+      <c r="AM40" s="74"/>
+      <c r="AN40" s="74"/>
+      <c r="AO40" s="75"/>
       <c r="AP40" s="51"/>
       <c r="AQ40" s="52"/>
       <c r="AR40" s="52"/>
@@ -4824,10 +4934,10 @@
       <c r="BL40" s="52"/>
       <c r="BM40" s="53"/>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="90"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4860,18 +4970,18 @@
       <c r="AA41" s="52"/>
       <c r="AB41" s="52"/>
       <c r="AC41" s="53"/>
-      <c r="AD41" s="64"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="65"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="64"/>
-      <c r="AK41" s="65"/>
-      <c r="AL41" s="65"/>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="66"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="73"/>
+      <c r="AK41" s="74"/>
+      <c r="AL41" s="74"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="75"/>
       <c r="AP41" s="51"/>
       <c r="AQ41" s="52"/>
       <c r="AR41" s="52"/>
@@ -4897,10 +5007,10 @@
       <c r="BL41" s="52"/>
       <c r="BM41" s="53"/>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="90"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4933,18 +5043,18 @@
       <c r="AA42" s="52"/>
       <c r="AB42" s="52"/>
       <c r="AC42" s="53"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="65"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="64"/>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="65"/>
-      <c r="AM42" s="65"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="66"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="74"/>
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="75"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="74"/>
+      <c r="AL42" s="74"/>
+      <c r="AM42" s="74"/>
+      <c r="AN42" s="74"/>
+      <c r="AO42" s="75"/>
       <c r="AP42" s="51"/>
       <c r="AQ42" s="52"/>
       <c r="AR42" s="52"/>
@@ -4970,10 +5080,10 @@
       <c r="BL42" s="52"/>
       <c r="BM42" s="53"/>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="90"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5006,18 +5116,18 @@
       <c r="AA43" s="52"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="53"/>
-      <c r="AD43" s="64"/>
-      <c r="AE43" s="65"/>
-      <c r="AF43" s="65"/>
-      <c r="AG43" s="65"/>
-      <c r="AH43" s="65"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="64"/>
-      <c r="AK43" s="65"/>
-      <c r="AL43" s="65"/>
-      <c r="AM43" s="65"/>
-      <c r="AN43" s="65"/>
-      <c r="AO43" s="66"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="74"/>
+      <c r="AF43" s="74"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="74"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="74"/>
+      <c r="AL43" s="74"/>
+      <c r="AM43" s="74"/>
+      <c r="AN43" s="74"/>
+      <c r="AO43" s="75"/>
       <c r="AP43" s="51"/>
       <c r="AQ43" s="52"/>
       <c r="AR43" s="52"/>
@@ -5043,10 +5153,10 @@
       <c r="BL43" s="52"/>
       <c r="BM43" s="53"/>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="90"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5079,18 +5189,18 @@
       <c r="AA44" s="52"/>
       <c r="AB44" s="52"/>
       <c r="AC44" s="53"/>
-      <c r="AD44" s="64"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-      <c r="AG44" s="65"/>
-      <c r="AH44" s="65"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="64"/>
-      <c r="AK44" s="65"/>
-      <c r="AL44" s="65"/>
-      <c r="AM44" s="65"/>
-      <c r="AN44" s="65"/>
-      <c r="AO44" s="66"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="74"/>
+      <c r="AL44" s="74"/>
+      <c r="AM44" s="74"/>
+      <c r="AN44" s="74"/>
+      <c r="AO44" s="75"/>
       <c r="AP44" s="51"/>
       <c r="AQ44" s="52"/>
       <c r="AR44" s="52"/>
@@ -5116,10 +5226,10 @@
       <c r="BL44" s="52"/>
       <c r="BM44" s="53"/>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="90"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5152,18 +5262,18 @@
       <c r="AA45" s="52"/>
       <c r="AB45" s="52"/>
       <c r="AC45" s="53"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="65"/>
-      <c r="AF45" s="65"/>
-      <c r="AG45" s="65"/>
-      <c r="AH45" s="65"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="64"/>
-      <c r="AK45" s="65"/>
-      <c r="AL45" s="65"/>
-      <c r="AM45" s="65"/>
-      <c r="AN45" s="65"/>
-      <c r="AO45" s="66"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="74"/>
+      <c r="AG45" s="74"/>
+      <c r="AH45" s="74"/>
+      <c r="AI45" s="75"/>
+      <c r="AJ45" s="73"/>
+      <c r="AK45" s="74"/>
+      <c r="AL45" s="74"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="74"/>
+      <c r="AO45" s="75"/>
       <c r="AP45" s="51"/>
       <c r="AQ45" s="52"/>
       <c r="AR45" s="52"/>
@@ -5189,10 +5299,10 @@
       <c r="BL45" s="52"/>
       <c r="BM45" s="53"/>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="90"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="41" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5225,18 +5335,18 @@
       <c r="AA46" s="52"/>
       <c r="AB46" s="52"/>
       <c r="AC46" s="53"/>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="65"/>
-      <c r="AF46" s="65"/>
-      <c r="AG46" s="65"/>
-      <c r="AH46" s="65"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="64"/>
-      <c r="AK46" s="65"/>
-      <c r="AL46" s="65"/>
-      <c r="AM46" s="65"/>
-      <c r="AN46" s="65"/>
-      <c r="AO46" s="66"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="74"/>
+      <c r="AF46" s="74"/>
+      <c r="AG46" s="74"/>
+      <c r="AH46" s="74"/>
+      <c r="AI46" s="75"/>
+      <c r="AJ46" s="73"/>
+      <c r="AK46" s="74"/>
+      <c r="AL46" s="74"/>
+      <c r="AM46" s="74"/>
+      <c r="AN46" s="74"/>
+      <c r="AO46" s="75"/>
       <c r="AP46" s="51"/>
       <c r="AQ46" s="52"/>
       <c r="AR46" s="52"/>
@@ -5262,10 +5372,10 @@
       <c r="BL46" s="52"/>
       <c r="BM46" s="53"/>
     </row>
-    <row r="47" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="95"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5298,18 +5408,18 @@
       <c r="AA47" s="55"/>
       <c r="AB47" s="55"/>
       <c r="AC47" s="56"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="65"/>
-      <c r="AF47" s="65"/>
-      <c r="AG47" s="65"/>
-      <c r="AH47" s="65"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="64"/>
-      <c r="AK47" s="65"/>
-      <c r="AL47" s="65"/>
-      <c r="AM47" s="65"/>
-      <c r="AN47" s="65"/>
-      <c r="AO47" s="66"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="74"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="74"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="73"/>
+      <c r="AK47" s="74"/>
+      <c r="AL47" s="74"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="75"/>
       <c r="AP47" s="54"/>
       <c r="AQ47" s="55"/>
       <c r="AR47" s="55"/>
@@ -5335,12 +5445,12 @@
       <c r="BL47" s="55"/>
       <c r="BM47" s="56"/>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="33"/>
-      <c r="C48" s="96"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="46">
         <f>SUM(D49:D58)</f>
         <v>0</v>
@@ -5373,18 +5483,18 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="5"/>
-      <c r="AD48" s="64"/>
-      <c r="AE48" s="65"/>
-      <c r="AF48" s="65"/>
-      <c r="AG48" s="65"/>
-      <c r="AH48" s="65"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="64"/>
-      <c r="AK48" s="65"/>
-      <c r="AL48" s="65"/>
-      <c r="AM48" s="65"/>
-      <c r="AN48" s="65"/>
-      <c r="AO48" s="66"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="73"/>
+      <c r="AK48" s="74"/>
+      <c r="AL48" s="74"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="75"/>
       <c r="AP48" s="6"/>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
@@ -5410,17 +5520,19 @@
       <c r="BL48" s="4"/>
       <c r="BM48" s="5"/>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="41" t="str">
+      <c r="B49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="93"/>
+      <c r="D49" s="41">
         <f>IF($B49&gt;"",SUM(COUNTIF(F49:BM49,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E49" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F49" s="48"/>
       <c r="G49" s="49"/>
@@ -5446,18 +5558,18 @@
       <c r="AA49" s="49"/>
       <c r="AB49" s="49"/>
       <c r="AC49" s="50"/>
-      <c r="AD49" s="64"/>
-      <c r="AE49" s="65"/>
-      <c r="AF49" s="65"/>
-      <c r="AG49" s="65"/>
-      <c r="AH49" s="65"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="64"/>
-      <c r="AK49" s="65"/>
-      <c r="AL49" s="65"/>
-      <c r="AM49" s="65"/>
-      <c r="AN49" s="65"/>
-      <c r="AO49" s="66"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="74"/>
+      <c r="AI49" s="75"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="74"/>
+      <c r="AL49" s="74"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="74"/>
+      <c r="AO49" s="75"/>
       <c r="AP49" s="48"/>
       <c r="AQ49" s="49"/>
       <c r="AR49" s="49"/>
@@ -5483,17 +5595,19 @@
       <c r="BL49" s="49"/>
       <c r="BM49" s="50"/>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="41" t="str">
+      <c r="B50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="93"/>
+      <c r="D50" s="41">
         <f t="shared" ref="D50:D58" si="7">IF($B50&gt;"",SUM(COUNTIF(F50:BM50,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E50" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F50" s="51"/>
       <c r="G50" s="52"/>
@@ -5519,18 +5633,18 @@
       <c r="AA50" s="52"/>
       <c r="AB50" s="52"/>
       <c r="AC50" s="53"/>
-      <c r="AD50" s="64"/>
-      <c r="AE50" s="65"/>
-      <c r="AF50" s="65"/>
-      <c r="AG50" s="65"/>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="64"/>
-      <c r="AK50" s="65"/>
-      <c r="AL50" s="65"/>
-      <c r="AM50" s="65"/>
-      <c r="AN50" s="65"/>
-      <c r="AO50" s="66"/>
+      <c r="AD50" s="73"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="74"/>
+      <c r="AI50" s="75"/>
+      <c r="AJ50" s="73"/>
+      <c r="AK50" s="74"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="74"/>
+      <c r="AN50" s="74"/>
+      <c r="AO50" s="75"/>
       <c r="AP50" s="51"/>
       <c r="AQ50" s="52"/>
       <c r="AR50" s="52"/>
@@ -5556,10 +5670,10 @@
       <c r="BL50" s="52"/>
       <c r="BM50" s="53"/>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="90"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5592,18 +5706,18 @@
       <c r="AA51" s="52"/>
       <c r="AB51" s="52"/>
       <c r="AC51" s="53"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="65"/>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65"/>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="64"/>
-      <c r="AK51" s="65"/>
-      <c r="AL51" s="65"/>
-      <c r="AM51" s="65"/>
-      <c r="AN51" s="65"/>
-      <c r="AO51" s="66"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="74"/>
+      <c r="AF51" s="74"/>
+      <c r="AG51" s="74"/>
+      <c r="AH51" s="74"/>
+      <c r="AI51" s="75"/>
+      <c r="AJ51" s="73"/>
+      <c r="AK51" s="74"/>
+      <c r="AL51" s="74"/>
+      <c r="AM51" s="74"/>
+      <c r="AN51" s="74"/>
+      <c r="AO51" s="75"/>
       <c r="AP51" s="51"/>
       <c r="AQ51" s="52"/>
       <c r="AR51" s="52"/>
@@ -5629,10 +5743,10 @@
       <c r="BL51" s="52"/>
       <c r="BM51" s="53"/>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="90"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5665,18 +5779,18 @@
       <c r="AA52" s="52"/>
       <c r="AB52" s="52"/>
       <c r="AC52" s="53"/>
-      <c r="AD52" s="64"/>
-      <c r="AE52" s="65"/>
-      <c r="AF52" s="65"/>
-      <c r="AG52" s="65"/>
-      <c r="AH52" s="65"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="64"/>
-      <c r="AK52" s="65"/>
-      <c r="AL52" s="65"/>
-      <c r="AM52" s="65"/>
-      <c r="AN52" s="65"/>
-      <c r="AO52" s="66"/>
+      <c r="AD52" s="73"/>
+      <c r="AE52" s="74"/>
+      <c r="AF52" s="74"/>
+      <c r="AG52" s="74"/>
+      <c r="AH52" s="74"/>
+      <c r="AI52" s="75"/>
+      <c r="AJ52" s="73"/>
+      <c r="AK52" s="74"/>
+      <c r="AL52" s="74"/>
+      <c r="AM52" s="74"/>
+      <c r="AN52" s="74"/>
+      <c r="AO52" s="75"/>
       <c r="AP52" s="51"/>
       <c r="AQ52" s="52"/>
       <c r="AR52" s="52"/>
@@ -5702,10 +5816,10 @@
       <c r="BL52" s="52"/>
       <c r="BM52" s="53"/>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="90"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5738,18 +5852,18 @@
       <c r="AA53" s="52"/>
       <c r="AB53" s="52"/>
       <c r="AC53" s="53"/>
-      <c r="AD53" s="64"/>
-      <c r="AE53" s="65"/>
-      <c r="AF53" s="65"/>
-      <c r="AG53" s="65"/>
-      <c r="AH53" s="65"/>
-      <c r="AI53" s="66"/>
-      <c r="AJ53" s="64"/>
-      <c r="AK53" s="65"/>
-      <c r="AL53" s="65"/>
-      <c r="AM53" s="65"/>
-      <c r="AN53" s="65"/>
-      <c r="AO53" s="66"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="74"/>
+      <c r="AF53" s="74"/>
+      <c r="AG53" s="74"/>
+      <c r="AH53" s="74"/>
+      <c r="AI53" s="75"/>
+      <c r="AJ53" s="73"/>
+      <c r="AK53" s="74"/>
+      <c r="AL53" s="74"/>
+      <c r="AM53" s="74"/>
+      <c r="AN53" s="74"/>
+      <c r="AO53" s="75"/>
       <c r="AP53" s="51"/>
       <c r="AQ53" s="52"/>
       <c r="AR53" s="52"/>
@@ -5775,10 +5889,10 @@
       <c r="BL53" s="52"/>
       <c r="BM53" s="53"/>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="90"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5811,18 +5925,18 @@
       <c r="AA54" s="52"/>
       <c r="AB54" s="52"/>
       <c r="AC54" s="53"/>
-      <c r="AD54" s="64"/>
-      <c r="AE54" s="65"/>
-      <c r="AF54" s="65"/>
-      <c r="AG54" s="65"/>
-      <c r="AH54" s="65"/>
-      <c r="AI54" s="66"/>
-      <c r="AJ54" s="64"/>
-      <c r="AK54" s="65"/>
-      <c r="AL54" s="65"/>
-      <c r="AM54" s="65"/>
-      <c r="AN54" s="65"/>
-      <c r="AO54" s="66"/>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="74"/>
+      <c r="AF54" s="74"/>
+      <c r="AG54" s="74"/>
+      <c r="AH54" s="74"/>
+      <c r="AI54" s="75"/>
+      <c r="AJ54" s="73"/>
+      <c r="AK54" s="74"/>
+      <c r="AL54" s="74"/>
+      <c r="AM54" s="74"/>
+      <c r="AN54" s="74"/>
+      <c r="AO54" s="75"/>
       <c r="AP54" s="51"/>
       <c r="AQ54" s="52"/>
       <c r="AR54" s="52"/>
@@ -5848,10 +5962,10 @@
       <c r="BL54" s="52"/>
       <c r="BM54" s="53"/>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="90"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5884,18 +5998,18 @@
       <c r="AA55" s="52"/>
       <c r="AB55" s="52"/>
       <c r="AC55" s="53"/>
-      <c r="AD55" s="64"/>
-      <c r="AE55" s="65"/>
-      <c r="AF55" s="65"/>
-      <c r="AG55" s="65"/>
-      <c r="AH55" s="65"/>
-      <c r="AI55" s="66"/>
-      <c r="AJ55" s="64"/>
-      <c r="AK55" s="65"/>
-      <c r="AL55" s="65"/>
-      <c r="AM55" s="65"/>
-      <c r="AN55" s="65"/>
-      <c r="AO55" s="66"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="74"/>
+      <c r="AF55" s="74"/>
+      <c r="AG55" s="74"/>
+      <c r="AH55" s="74"/>
+      <c r="AI55" s="75"/>
+      <c r="AJ55" s="73"/>
+      <c r="AK55" s="74"/>
+      <c r="AL55" s="74"/>
+      <c r="AM55" s="74"/>
+      <c r="AN55" s="74"/>
+      <c r="AO55" s="75"/>
       <c r="AP55" s="51"/>
       <c r="AQ55" s="52"/>
       <c r="AR55" s="52"/>
@@ -5921,10 +6035,10 @@
       <c r="BL55" s="52"/>
       <c r="BM55" s="53"/>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="90"/>
+      <c r="C56" s="93"/>
       <c r="D56" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5957,18 +6071,18 @@
       <c r="AA56" s="52"/>
       <c r="AB56" s="52"/>
       <c r="AC56" s="53"/>
-      <c r="AD56" s="64"/>
-      <c r="AE56" s="65"/>
-      <c r="AF56" s="65"/>
-      <c r="AG56" s="65"/>
-      <c r="AH56" s="65"/>
-      <c r="AI56" s="66"/>
-      <c r="AJ56" s="64"/>
-      <c r="AK56" s="65"/>
-      <c r="AL56" s="65"/>
-      <c r="AM56" s="65"/>
-      <c r="AN56" s="65"/>
-      <c r="AO56" s="66"/>
+      <c r="AD56" s="73"/>
+      <c r="AE56" s="74"/>
+      <c r="AF56" s="74"/>
+      <c r="AG56" s="74"/>
+      <c r="AH56" s="74"/>
+      <c r="AI56" s="75"/>
+      <c r="AJ56" s="73"/>
+      <c r="AK56" s="74"/>
+      <c r="AL56" s="74"/>
+      <c r="AM56" s="74"/>
+      <c r="AN56" s="74"/>
+      <c r="AO56" s="75"/>
       <c r="AP56" s="51"/>
       <c r="AQ56" s="52"/>
       <c r="AR56" s="52"/>
@@ -5994,10 +6108,10 @@
       <c r="BL56" s="52"/>
       <c r="BM56" s="53"/>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="90"/>
+      <c r="C57" s="93"/>
       <c r="D57" s="41" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6030,18 +6144,18 @@
       <c r="AA57" s="52"/>
       <c r="AB57" s="52"/>
       <c r="AC57" s="53"/>
-      <c r="AD57" s="64"/>
-      <c r="AE57" s="65"/>
-      <c r="AF57" s="65"/>
-      <c r="AG57" s="65"/>
-      <c r="AH57" s="65"/>
-      <c r="AI57" s="66"/>
-      <c r="AJ57" s="64"/>
-      <c r="AK57" s="65"/>
-      <c r="AL57" s="65"/>
-      <c r="AM57" s="65"/>
-      <c r="AN57" s="65"/>
-      <c r="AO57" s="66"/>
+      <c r="AD57" s="73"/>
+      <c r="AE57" s="74"/>
+      <c r="AF57" s="74"/>
+      <c r="AG57" s="74"/>
+      <c r="AH57" s="74"/>
+      <c r="AI57" s="75"/>
+      <c r="AJ57" s="73"/>
+      <c r="AK57" s="74"/>
+      <c r="AL57" s="74"/>
+      <c r="AM57" s="74"/>
+      <c r="AN57" s="74"/>
+      <c r="AO57" s="75"/>
       <c r="AP57" s="51"/>
       <c r="AQ57" s="52"/>
       <c r="AR57" s="52"/>
@@ -6067,10 +6181,10 @@
       <c r="BL57" s="52"/>
       <c r="BM57" s="53"/>
     </row>
-    <row r="58" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="38"/>
-      <c r="C58" s="91"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="42" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6103,18 +6217,18 @@
       <c r="AA58" s="55"/>
       <c r="AB58" s="55"/>
       <c r="AC58" s="56"/>
-      <c r="AD58" s="64"/>
-      <c r="AE58" s="65"/>
-      <c r="AF58" s="65"/>
-      <c r="AG58" s="65"/>
-      <c r="AH58" s="65"/>
-      <c r="AI58" s="66"/>
-      <c r="AJ58" s="64"/>
-      <c r="AK58" s="65"/>
-      <c r="AL58" s="65"/>
-      <c r="AM58" s="65"/>
-      <c r="AN58" s="65"/>
-      <c r="AO58" s="66"/>
+      <c r="AD58" s="73"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="75"/>
+      <c r="AJ58" s="73"/>
+      <c r="AK58" s="74"/>
+      <c r="AL58" s="74"/>
+      <c r="AM58" s="74"/>
+      <c r="AN58" s="74"/>
+      <c r="AO58" s="75"/>
       <c r="AP58" s="54"/>
       <c r="AQ58" s="55"/>
       <c r="AR58" s="55"/>
@@ -6140,12 +6254,12 @@
       <c r="BL58" s="55"/>
       <c r="BM58" s="56"/>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="35"/>
-      <c r="C59" s="97"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="47">
         <f>SUM(D60:D69)</f>
         <v>0</v>
@@ -6178,18 +6292,18 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="5"/>
-      <c r="AD59" s="64"/>
-      <c r="AE59" s="65"/>
-      <c r="AF59" s="65"/>
-      <c r="AG59" s="65"/>
-      <c r="AH59" s="65"/>
-      <c r="AI59" s="66"/>
-      <c r="AJ59" s="64"/>
-      <c r="AK59" s="65"/>
-      <c r="AL59" s="65"/>
-      <c r="AM59" s="65"/>
-      <c r="AN59" s="65"/>
-      <c r="AO59" s="66"/>
+      <c r="AD59" s="73"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="74"/>
+      <c r="AI59" s="75"/>
+      <c r="AJ59" s="73"/>
+      <c r="AK59" s="74"/>
+      <c r="AL59" s="74"/>
+      <c r="AM59" s="74"/>
+      <c r="AN59" s="74"/>
+      <c r="AO59" s="75"/>
       <c r="AP59" s="6"/>
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
@@ -6215,17 +6329,21 @@
       <c r="BL59" s="4"/>
       <c r="BM59" s="5"/>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="41" t="str">
+      <c r="B60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="41">
         <f>IF($B60&gt;"",SUM(COUNTIF(F60:BM60,"P"))/2,"")</f>
-        <v/>
-      </c>
-      <c r="E60" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F60" s="57"/>
       <c r="G60" s="49"/>
@@ -6251,18 +6369,18 @@
       <c r="AA60" s="49"/>
       <c r="AB60" s="49"/>
       <c r="AC60" s="50"/>
-      <c r="AD60" s="64"/>
-      <c r="AE60" s="65"/>
-      <c r="AF60" s="65"/>
-      <c r="AG60" s="65"/>
-      <c r="AH60" s="65"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="64"/>
-      <c r="AK60" s="65"/>
-      <c r="AL60" s="65"/>
-      <c r="AM60" s="65"/>
-      <c r="AN60" s="65"/>
-      <c r="AO60" s="66"/>
+      <c r="AD60" s="73"/>
+      <c r="AE60" s="74"/>
+      <c r="AF60" s="74"/>
+      <c r="AG60" s="74"/>
+      <c r="AH60" s="74"/>
+      <c r="AI60" s="75"/>
+      <c r="AJ60" s="73"/>
+      <c r="AK60" s="74"/>
+      <c r="AL60" s="74"/>
+      <c r="AM60" s="74"/>
+      <c r="AN60" s="74"/>
+      <c r="AO60" s="75"/>
       <c r="AP60" s="48"/>
       <c r="AQ60" s="49"/>
       <c r="AR60" s="49"/>
@@ -6288,10 +6406,10 @@
       <c r="BL60" s="49"/>
       <c r="BM60" s="50"/>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="90"/>
+      <c r="C61" s="93"/>
       <c r="D61" s="41" t="str">
         <f t="shared" ref="D61:D69" si="8">IF($B61&gt;"",SUM(COUNTIF(F61:BM61,"P"))/2,"")</f>
         <v/>
@@ -6324,18 +6442,18 @@
       <c r="AA61" s="52"/>
       <c r="AB61" s="52"/>
       <c r="AC61" s="53"/>
-      <c r="AD61" s="64"/>
-      <c r="AE61" s="65"/>
-      <c r="AF61" s="65"/>
-      <c r="AG61" s="65"/>
-      <c r="AH61" s="65"/>
-      <c r="AI61" s="66"/>
-      <c r="AJ61" s="64"/>
-      <c r="AK61" s="65"/>
-      <c r="AL61" s="65"/>
-      <c r="AM61" s="65"/>
-      <c r="AN61" s="65"/>
-      <c r="AO61" s="66"/>
+      <c r="AD61" s="73"/>
+      <c r="AE61" s="74"/>
+      <c r="AF61" s="74"/>
+      <c r="AG61" s="74"/>
+      <c r="AH61" s="74"/>
+      <c r="AI61" s="75"/>
+      <c r="AJ61" s="73"/>
+      <c r="AK61" s="74"/>
+      <c r="AL61" s="74"/>
+      <c r="AM61" s="74"/>
+      <c r="AN61" s="74"/>
+      <c r="AO61" s="75"/>
       <c r="AP61" s="51"/>
       <c r="AQ61" s="52"/>
       <c r="AR61" s="52"/>
@@ -6361,10 +6479,10 @@
       <c r="BL61" s="52"/>
       <c r="BM61" s="53"/>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="90"/>
+      <c r="C62" s="93"/>
       <c r="D62" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6397,18 +6515,18 @@
       <c r="AA62" s="52"/>
       <c r="AB62" s="52"/>
       <c r="AC62" s="53"/>
-      <c r="AD62" s="64"/>
-      <c r="AE62" s="65"/>
-      <c r="AF62" s="65"/>
-      <c r="AG62" s="65"/>
-      <c r="AH62" s="65"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="64"/>
-      <c r="AK62" s="65"/>
-      <c r="AL62" s="65"/>
-      <c r="AM62" s="65"/>
-      <c r="AN62" s="65"/>
-      <c r="AO62" s="66"/>
+      <c r="AD62" s="73"/>
+      <c r="AE62" s="74"/>
+      <c r="AF62" s="74"/>
+      <c r="AG62" s="74"/>
+      <c r="AH62" s="74"/>
+      <c r="AI62" s="75"/>
+      <c r="AJ62" s="73"/>
+      <c r="AK62" s="74"/>
+      <c r="AL62" s="74"/>
+      <c r="AM62" s="74"/>
+      <c r="AN62" s="74"/>
+      <c r="AO62" s="75"/>
       <c r="AP62" s="51"/>
       <c r="AQ62" s="52"/>
       <c r="AR62" s="52"/>
@@ -6434,10 +6552,10 @@
       <c r="BL62" s="52"/>
       <c r="BM62" s="53"/>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="90"/>
+      <c r="C63" s="93"/>
       <c r="D63" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6470,18 +6588,18 @@
       <c r="AA63" s="52"/>
       <c r="AB63" s="52"/>
       <c r="AC63" s="53"/>
-      <c r="AD63" s="64"/>
-      <c r="AE63" s="65"/>
-      <c r="AF63" s="65"/>
-      <c r="AG63" s="65"/>
-      <c r="AH63" s="65"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="64"/>
-      <c r="AK63" s="65"/>
-      <c r="AL63" s="65"/>
-      <c r="AM63" s="65"/>
-      <c r="AN63" s="65"/>
-      <c r="AO63" s="66"/>
+      <c r="AD63" s="73"/>
+      <c r="AE63" s="74"/>
+      <c r="AF63" s="74"/>
+      <c r="AG63" s="74"/>
+      <c r="AH63" s="74"/>
+      <c r="AI63" s="75"/>
+      <c r="AJ63" s="73"/>
+      <c r="AK63" s="74"/>
+      <c r="AL63" s="74"/>
+      <c r="AM63" s="74"/>
+      <c r="AN63" s="74"/>
+      <c r="AO63" s="75"/>
       <c r="AP63" s="51"/>
       <c r="AQ63" s="52"/>
       <c r="AR63" s="52"/>
@@ -6507,10 +6625,10 @@
       <c r="BL63" s="52"/>
       <c r="BM63" s="53"/>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="90"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6543,18 +6661,18 @@
       <c r="AA64" s="52"/>
       <c r="AB64" s="52"/>
       <c r="AC64" s="53"/>
-      <c r="AD64" s="64"/>
-      <c r="AE64" s="65"/>
-      <c r="AF64" s="65"/>
-      <c r="AG64" s="65"/>
-      <c r="AH64" s="65"/>
-      <c r="AI64" s="66"/>
-      <c r="AJ64" s="64"/>
-      <c r="AK64" s="65"/>
-      <c r="AL64" s="65"/>
-      <c r="AM64" s="65"/>
-      <c r="AN64" s="65"/>
-      <c r="AO64" s="66"/>
+      <c r="AD64" s="73"/>
+      <c r="AE64" s="74"/>
+      <c r="AF64" s="74"/>
+      <c r="AG64" s="74"/>
+      <c r="AH64" s="74"/>
+      <c r="AI64" s="75"/>
+      <c r="AJ64" s="73"/>
+      <c r="AK64" s="74"/>
+      <c r="AL64" s="74"/>
+      <c r="AM64" s="74"/>
+      <c r="AN64" s="74"/>
+      <c r="AO64" s="75"/>
       <c r="AP64" s="51"/>
       <c r="AQ64" s="52"/>
       <c r="AR64" s="52"/>
@@ -6580,10 +6698,10 @@
       <c r="BL64" s="52"/>
       <c r="BM64" s="53"/>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="90"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6616,18 +6734,18 @@
       <c r="AA65" s="52"/>
       <c r="AB65" s="52"/>
       <c r="AC65" s="53"/>
-      <c r="AD65" s="64"/>
-      <c r="AE65" s="65"/>
-      <c r="AF65" s="65"/>
-      <c r="AG65" s="65"/>
-      <c r="AH65" s="65"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="64"/>
-      <c r="AK65" s="65"/>
-      <c r="AL65" s="65"/>
-      <c r="AM65" s="65"/>
-      <c r="AN65" s="65"/>
-      <c r="AO65" s="66"/>
+      <c r="AD65" s="73"/>
+      <c r="AE65" s="74"/>
+      <c r="AF65" s="74"/>
+      <c r="AG65" s="74"/>
+      <c r="AH65" s="74"/>
+      <c r="AI65" s="75"/>
+      <c r="AJ65" s="73"/>
+      <c r="AK65" s="74"/>
+      <c r="AL65" s="74"/>
+      <c r="AM65" s="74"/>
+      <c r="AN65" s="74"/>
+      <c r="AO65" s="75"/>
       <c r="AP65" s="51"/>
       <c r="AQ65" s="52"/>
       <c r="AR65" s="52"/>
@@ -6653,10 +6771,10 @@
       <c r="BL65" s="52"/>
       <c r="BM65" s="53"/>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="90"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6689,18 +6807,18 @@
       <c r="AA66" s="52"/>
       <c r="AB66" s="52"/>
       <c r="AC66" s="53"/>
-      <c r="AD66" s="64"/>
-      <c r="AE66" s="65"/>
-      <c r="AF66" s="65"/>
-      <c r="AG66" s="65"/>
-      <c r="AH66" s="65"/>
-      <c r="AI66" s="66"/>
-      <c r="AJ66" s="64"/>
-      <c r="AK66" s="65"/>
-      <c r="AL66" s="65"/>
-      <c r="AM66" s="65"/>
-      <c r="AN66" s="65"/>
-      <c r="AO66" s="66"/>
+      <c r="AD66" s="73"/>
+      <c r="AE66" s="74"/>
+      <c r="AF66" s="74"/>
+      <c r="AG66" s="74"/>
+      <c r="AH66" s="74"/>
+      <c r="AI66" s="75"/>
+      <c r="AJ66" s="73"/>
+      <c r="AK66" s="74"/>
+      <c r="AL66" s="74"/>
+      <c r="AM66" s="74"/>
+      <c r="AN66" s="74"/>
+      <c r="AO66" s="75"/>
       <c r="AP66" s="51"/>
       <c r="AQ66" s="52"/>
       <c r="AR66" s="52"/>
@@ -6726,10 +6844,10 @@
       <c r="BL66" s="52"/>
       <c r="BM66" s="53"/>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="90"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6762,18 +6880,18 @@
       <c r="AA67" s="52"/>
       <c r="AB67" s="52"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="64"/>
-      <c r="AE67" s="65"/>
-      <c r="AF67" s="65"/>
-      <c r="AG67" s="65"/>
-      <c r="AH67" s="65"/>
-      <c r="AI67" s="66"/>
-      <c r="AJ67" s="64"/>
-      <c r="AK67" s="65"/>
-      <c r="AL67" s="65"/>
-      <c r="AM67" s="65"/>
-      <c r="AN67" s="65"/>
-      <c r="AO67" s="66"/>
+      <c r="AD67" s="73"/>
+      <c r="AE67" s="74"/>
+      <c r="AF67" s="74"/>
+      <c r="AG67" s="74"/>
+      <c r="AH67" s="74"/>
+      <c r="AI67" s="75"/>
+      <c r="AJ67" s="73"/>
+      <c r="AK67" s="74"/>
+      <c r="AL67" s="74"/>
+      <c r="AM67" s="74"/>
+      <c r="AN67" s="74"/>
+      <c r="AO67" s="75"/>
       <c r="AP67" s="51"/>
       <c r="AQ67" s="52"/>
       <c r="AR67" s="52"/>
@@ -6799,10 +6917,10 @@
       <c r="BL67" s="52"/>
       <c r="BM67" s="53"/>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="90"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="41" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6835,18 +6953,18 @@
       <c r="AA68" s="52"/>
       <c r="AB68" s="52"/>
       <c r="AC68" s="53"/>
-      <c r="AD68" s="64"/>
-      <c r="AE68" s="65"/>
-      <c r="AF68" s="65"/>
-      <c r="AG68" s="65"/>
-      <c r="AH68" s="65"/>
-      <c r="AI68" s="66"/>
-      <c r="AJ68" s="64"/>
-      <c r="AK68" s="65"/>
-      <c r="AL68" s="65"/>
-      <c r="AM68" s="65"/>
-      <c r="AN68" s="65"/>
-      <c r="AO68" s="66"/>
+      <c r="AD68" s="73"/>
+      <c r="AE68" s="74"/>
+      <c r="AF68" s="74"/>
+      <c r="AG68" s="74"/>
+      <c r="AH68" s="74"/>
+      <c r="AI68" s="75"/>
+      <c r="AJ68" s="73"/>
+      <c r="AK68" s="74"/>
+      <c r="AL68" s="74"/>
+      <c r="AM68" s="74"/>
+      <c r="AN68" s="74"/>
+      <c r="AO68" s="75"/>
       <c r="AP68" s="51"/>
       <c r="AQ68" s="52"/>
       <c r="AR68" s="52"/>
@@ -6872,10 +6990,10 @@
       <c r="BL68" s="52"/>
       <c r="BM68" s="53"/>
     </row>
-    <row r="69" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="38"/>
-      <c r="C69" s="91"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="42" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6908,18 +7026,18 @@
       <c r="AA69" s="55"/>
       <c r="AB69" s="55"/>
       <c r="AC69" s="56"/>
-      <c r="AD69" s="67"/>
-      <c r="AE69" s="68"/>
-      <c r="AF69" s="68"/>
-      <c r="AG69" s="68"/>
-      <c r="AH69" s="68"/>
-      <c r="AI69" s="69"/>
-      <c r="AJ69" s="67"/>
-      <c r="AK69" s="68"/>
-      <c r="AL69" s="68"/>
-      <c r="AM69" s="68"/>
-      <c r="AN69" s="68"/>
-      <c r="AO69" s="69"/>
+      <c r="AD69" s="76"/>
+      <c r="AE69" s="77"/>
+      <c r="AF69" s="77"/>
+      <c r="AG69" s="77"/>
+      <c r="AH69" s="77"/>
+      <c r="AI69" s="78"/>
+      <c r="AJ69" s="76"/>
+      <c r="AK69" s="77"/>
+      <c r="AL69" s="77"/>
+      <c r="AM69" s="77"/>
+      <c r="AN69" s="77"/>
+      <c r="AO69" s="78"/>
       <c r="AP69" s="54"/>
       <c r="AQ69" s="55"/>
       <c r="AR69" s="55"/>
@@ -6948,6 +7066,27 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="37">
+    <mergeCell ref="AD3:AI69"/>
+    <mergeCell ref="AJ3:AO69"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="BB2:BD2"/>
     <mergeCell ref="BE2:BG2"/>
@@ -6964,27 +7103,6 @@
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AD3:AI69"/>
-    <mergeCell ref="AJ3:AO69"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AD1:AI1"/>
-    <mergeCell ref="AJ1:AO1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AC14 AP5:BM14">
     <cfRule type="cellIs" dxfId="11" priority="159" stopIfTrue="1" operator="equal">
